--- a/Hotel App main Assignmet/New folder/Config Files/Hotel App Assignment.xlsx
+++ b/Hotel App main Assignmet/New folder/Config Files/Hotel App Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shriya\Desktop\Hotel Aasignment\Hotel App main Assignmet\New folder\Config Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F40756-E6E1-43CF-BC73-CB396DBA00F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A58989-DF91-4F55-A627-BD1EA6C1CB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -554,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
